--- a/syllabus/Fall_2020_international_law/syllabus_parts.xlsx
+++ b/syllabus/Fall_2020_international_law/syllabus_parts.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jscriven/github/syllabi_refs_readings_list/syllabus/Fall_2020_international_law/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F586E7-6238-1145-A7B3-C3D01B826080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A567F7BA-0890-C94A-887C-391D49D4FD87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="220" windowWidth="21600" windowHeight="37940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="21600" windowHeight="38400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="days_all" sheetId="3" r:id="rId1"/>
-    <sheet name="course_parts" sheetId="1" r:id="rId2"/>
-    <sheet name="readings_pages" sheetId="4" r:id="rId3"/>
-    <sheet name="composition" sheetId="5" r:id="rId4"/>
-    <sheet name="grading" sheetId="6" r:id="rId5"/>
-    <sheet name="classify" sheetId="7" r:id="rId6"/>
-    <sheet name="days_spec" sheetId="2" r:id="rId7"/>
+    <sheet name="todo" sheetId="8" r:id="rId2"/>
+    <sheet name="course_parts" sheetId="1" r:id="rId3"/>
+    <sheet name="readings_pages" sheetId="4" r:id="rId4"/>
+    <sheet name="composition" sheetId="5" r:id="rId5"/>
+    <sheet name="grading" sheetId="6" r:id="rId6"/>
+    <sheet name="classify" sheetId="7" r:id="rId7"/>
+    <sheet name="days_spec" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="120">
   <si>
     <t>unit</t>
   </si>
@@ -53,9 +54,6 @@
     <t>Nature &amp; Sources</t>
   </si>
   <si>
-    <t>what</t>
-  </si>
-  <si>
     <t>The Law of Treaties</t>
   </si>
   <si>
@@ -65,27 +63,18 @@
     <t xml:space="preserve">International Personality </t>
   </si>
   <si>
-    <t>who</t>
-  </si>
-  <si>
     <t>International Human Rights Law</t>
   </si>
   <si>
     <t>Responsibility &amp; Immunity</t>
   </si>
   <si>
-    <t>when</t>
-  </si>
-  <si>
     <t>Law of the Sea</t>
   </si>
   <si>
     <t>International Criminal Law</t>
   </si>
   <si>
-    <t>how</t>
-  </si>
-  <si>
     <t>The Use of Force, Collective Security and Peacekeeping</t>
   </si>
   <si>
@@ -279,9 +268,6 @@
   </si>
   <si>
     <t>Maritime Delimitation and Territorial Questions Between Qatar and Bahrain Case (Qatar v Bahrain)</t>
-  </si>
-  <si>
-    <t>Dixon, McCorquodale, Williams - Cases &amp; Materials on International Law Chapters 1 &amp; 2</t>
   </si>
   <si>
     <t>Dixon, McCorquodale, Williams - Cases &amp; Materials on International Law Chapters 3 &amp; 4</t>
@@ -381,6 +367,39 @@
   </si>
   <si>
     <t>Post syllabus quiz</t>
+  </si>
+  <si>
+    <t>sec 008</t>
+  </si>
+  <si>
+    <t>sec 005</t>
+  </si>
+  <si>
+    <t>Reading guides landing</t>
+  </si>
+  <si>
+    <t>syllabus landing</t>
+  </si>
+  <si>
+    <t>intro survey link</t>
+  </si>
+  <si>
+    <t>zoom link1</t>
+  </si>
+  <si>
+    <t>Office hours link same</t>
+  </si>
+  <si>
+    <t>Dixon, McCorquodale, Williams - Cases &amp; Materials on International Law | Ch 1: pages 1-7, 9, and 13-15</t>
+  </si>
+  <si>
+    <t>Dixon, McCorquodale, Williams - Cases &amp; Materials on International Law | Ch 2: pages 18-39 and 42-43</t>
+  </si>
+  <si>
+    <t>module 1 readings</t>
+  </si>
+  <si>
+    <t>intro discussion board</t>
   </si>
 </sst>
 </file>
@@ -600,7 +619,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -867,6 +886,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,7 +1302,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1601,6 +1626,9 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="46" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1966,7 +1994,7 @@
   <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1989,16 +2017,16 @@
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="93" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="127" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G1" s="131" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2010,7 +2038,7 @@
       <c r="D2" s="94"/>
       <c r="E2" s="13"/>
       <c r="F2" s="61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G2" s="132"/>
     </row>
@@ -2023,7 +2051,7 @@
       <c r="D3" s="94"/>
       <c r="E3" s="13"/>
       <c r="F3" s="62" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G3" s="132"/>
     </row>
@@ -2033,12 +2061,12 @@
       </c>
       <c r="B4" s="94"/>
       <c r="C4" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D4" s="94"/>
       <c r="E4" s="13"/>
       <c r="F4" s="62" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G4" s="132"/>
     </row>
@@ -2051,7 +2079,7 @@
       <c r="D5" s="94"/>
       <c r="E5" s="13"/>
       <c r="F5" s="62" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G5" s="132"/>
     </row>
@@ -2086,13 +2114,13 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="94" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G8" s="132"/>
     </row>
@@ -2102,12 +2130,12 @@
       </c>
       <c r="B9" s="94"/>
       <c r="C9" s="13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D9" s="94"/>
       <c r="E9" s="13"/>
       <c r="F9" s="61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="132"/>
     </row>
@@ -2120,7 +2148,7 @@
       <c r="D10" s="94"/>
       <c r="E10" s="13"/>
       <c r="F10" s="62" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G10" s="132"/>
     </row>
@@ -2129,13 +2157,13 @@
         <v>44077</v>
       </c>
       <c r="B11" s="94"/>
-      <c r="C11" s="13" t="s">
-        <v>113</v>
+      <c r="C11" s="152" t="s">
+        <v>108</v>
       </c>
       <c r="D11" s="94"/>
       <c r="E11" s="13"/>
       <c r="F11" s="62" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G11" s="132"/>
     </row>
@@ -2148,7 +2176,7 @@
       <c r="D12" s="94"/>
       <c r="E12" s="13"/>
       <c r="F12" s="62" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G12" s="132"/>
     </row>
@@ -2182,16 +2210,16 @@
         <v>3</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D15" s="94" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="61" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G15" s="132"/>
     </row>
@@ -2204,7 +2232,7 @@
       <c r="D16" s="94"/>
       <c r="E16" s="13"/>
       <c r="F16" s="61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G16" s="132"/>
     </row>
@@ -2217,7 +2245,7 @@
       <c r="D17" s="94"/>
       <c r="E17" s="13"/>
       <c r="F17" s="62" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G17" s="132"/>
     </row>
@@ -2230,7 +2258,7 @@
       <c r="D18" s="94"/>
       <c r="E18" s="13"/>
       <c r="F18" s="62" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G18" s="132"/>
     </row>
@@ -2243,7 +2271,7 @@
       <c r="D19" s="94"/>
       <c r="E19" s="13"/>
       <c r="F19" s="62" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G19" s="132"/>
     </row>
@@ -2267,7 +2295,7 @@
       <c r="D21" s="95"/>
       <c r="E21" s="22"/>
       <c r="F21" s="64" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G21" s="133"/>
     </row>
@@ -2283,13 +2311,13 @@
         <v>2</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" s="65" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G22" s="134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="19" x14ac:dyDescent="0.2">
@@ -2301,7 +2329,7 @@
       <c r="D23" s="97"/>
       <c r="E23" s="14"/>
       <c r="F23" s="66" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G23" s="135"/>
     </row>
@@ -2336,7 +2364,7 @@
       <c r="D26" s="97"/>
       <c r="E26" s="14"/>
       <c r="F26" s="68" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G26" s="135"/>
     </row>
@@ -2373,14 +2401,14 @@
       <c r="D29" s="97"/>
       <c r="E29" s="14"/>
       <c r="F29" s="68" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G29" s="135"/>
       <c r="H29" s="6">
         <v>5</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="19" x14ac:dyDescent="0.2">
@@ -2403,7 +2431,7 @@
       <c r="D31" s="97"/>
       <c r="E31" s="14"/>
       <c r="F31" s="68" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G31" s="135"/>
     </row>
@@ -2427,7 +2455,7 @@
       <c r="D33" s="97"/>
       <c r="E33" s="14"/>
       <c r="F33" s="68" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G33" s="135"/>
     </row>
@@ -2451,7 +2479,7 @@
       <c r="D35" s="98"/>
       <c r="E35" s="28"/>
       <c r="F35" s="69" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G35" s="136"/>
     </row>
@@ -2467,13 +2495,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F36" s="70" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G36" s="137" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2485,7 +2513,7 @@
       <c r="D37" s="100"/>
       <c r="E37" s="15"/>
       <c r="F37" s="71" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G37" s="138"/>
     </row>
@@ -2520,7 +2548,7 @@
       <c r="D40" s="100"/>
       <c r="E40" s="15"/>
       <c r="F40" s="73" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G40" s="138"/>
     </row>
@@ -2557,7 +2585,7 @@
       <c r="D43" s="100"/>
       <c r="E43" s="15"/>
       <c r="F43" s="73" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G43" s="138"/>
     </row>
@@ -2581,7 +2609,7 @@
       <c r="D45" s="100"/>
       <c r="E45" s="15"/>
       <c r="F45" s="73" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G45" s="138"/>
     </row>
@@ -2605,7 +2633,7 @@
       <c r="D47" s="100"/>
       <c r="E47" s="15"/>
       <c r="F47" s="73" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G47" s="138"/>
     </row>
@@ -2629,7 +2657,7 @@
       <c r="D49" s="101"/>
       <c r="E49" s="34"/>
       <c r="F49" s="74" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G49" s="139"/>
     </row>
@@ -2645,13 +2673,13 @@
         <v>4</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F50" s="75" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G50" s="140" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2663,7 +2691,7 @@
       <c r="D51" s="103"/>
       <c r="E51" s="9"/>
       <c r="F51" s="76" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G51" s="141"/>
     </row>
@@ -2698,7 +2726,7 @@
       <c r="D54" s="103"/>
       <c r="E54" s="9"/>
       <c r="F54" s="78" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G54" s="141"/>
     </row>
@@ -2735,7 +2763,7 @@
       <c r="D57" s="103"/>
       <c r="E57" s="9"/>
       <c r="F57" s="78" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G57" s="141"/>
     </row>
@@ -2759,7 +2787,7 @@
       <c r="D59" s="103"/>
       <c r="E59" s="9"/>
       <c r="F59" s="78" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G59" s="141"/>
     </row>
@@ -2783,7 +2811,7 @@
       <c r="D61" s="103"/>
       <c r="E61" s="9"/>
       <c r="F61" s="78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G61" s="141"/>
     </row>
@@ -2807,7 +2835,7 @@
       <c r="D63" s="104"/>
       <c r="E63" s="40"/>
       <c r="F63" s="79" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G63" s="142"/>
     </row>
@@ -2823,13 +2851,13 @@
         <v>5</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F64" s="80" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G64" s="143" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2841,7 +2869,7 @@
       <c r="D65" s="106"/>
       <c r="E65" s="10"/>
       <c r="F65" s="81" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G65" s="144"/>
     </row>
@@ -2876,7 +2904,7 @@
       <c r="D68" s="106"/>
       <c r="E68" s="10"/>
       <c r="F68" s="83" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G68" s="144"/>
     </row>
@@ -2913,7 +2941,7 @@
       <c r="D71" s="106"/>
       <c r="E71" s="10"/>
       <c r="F71" s="83" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G71" s="144"/>
     </row>
@@ -2937,7 +2965,7 @@
       <c r="D73" s="106"/>
       <c r="E73" s="10"/>
       <c r="F73" s="83" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G73" s="144"/>
     </row>
@@ -2961,7 +2989,7 @@
       <c r="D75" s="106"/>
       <c r="E75" s="10"/>
       <c r="F75" s="83" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G75" s="144"/>
     </row>
@@ -2985,7 +3013,7 @@
       <c r="D77" s="107"/>
       <c r="E77" s="46"/>
       <c r="F77" s="84" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G77" s="145"/>
     </row>
@@ -3001,13 +3029,13 @@
         <v>6</v>
       </c>
       <c r="E78" s="48" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F78" s="85" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G78" s="146" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -3019,7 +3047,7 @@
       <c r="D79" s="109"/>
       <c r="E79" s="11"/>
       <c r="F79" s="86" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G79" s="147"/>
     </row>
@@ -3029,7 +3057,7 @@
       </c>
       <c r="B80" s="109"/>
       <c r="C80" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D80" s="109"/>
       <c r="E80" s="11"/>
@@ -3056,7 +3084,7 @@
       <c r="D82" s="109"/>
       <c r="E82" s="11"/>
       <c r="F82" s="87" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G82" s="147"/>
     </row>
@@ -3093,7 +3121,7 @@
       <c r="D85" s="109"/>
       <c r="E85" s="11"/>
       <c r="F85" s="87" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G85" s="147"/>
     </row>
@@ -3117,7 +3145,7 @@
       <c r="D87" s="109"/>
       <c r="E87" s="11"/>
       <c r="F87" s="87" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G87" s="147"/>
     </row>
@@ -3141,7 +3169,7 @@
       <c r="D89" s="109"/>
       <c r="E89" s="11"/>
       <c r="F89" s="87" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G89" s="147"/>
     </row>
@@ -3165,7 +3193,7 @@
       <c r="D91" s="110"/>
       <c r="E91" s="53"/>
       <c r="F91" s="89" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G91" s="148"/>
     </row>
@@ -3177,7 +3205,7 @@
         <v>14</v>
       </c>
       <c r="C92" s="55" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D92" s="111">
         <v>7</v>
@@ -3185,7 +3213,7 @@
       <c r="E92" s="55"/>
       <c r="F92" s="90"/>
       <c r="G92" s="149" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -3205,7 +3233,7 @@
       </c>
       <c r="B94" s="112"/>
       <c r="C94" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D94" s="112"/>
       <c r="E94" s="12"/>
@@ -3218,7 +3246,7 @@
       </c>
       <c r="B95" s="112"/>
       <c r="C95" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D95" s="112"/>
       <c r="E95" s="12"/>
@@ -3231,7 +3259,7 @@
       </c>
       <c r="B96" s="112"/>
       <c r="C96" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D96" s="112"/>
       <c r="E96" s="12"/>
@@ -3272,7 +3300,7 @@
       <c r="E99" s="12"/>
       <c r="F99" s="91"/>
       <c r="G99" s="150" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -3284,7 +3312,7 @@
       <c r="D100" s="112"/>
       <c r="E100" s="12"/>
       <c r="F100" s="91" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G100" s="150"/>
     </row>
@@ -3341,7 +3369,7 @@
       <c r="D105" s="113"/>
       <c r="E105" s="60"/>
       <c r="F105" s="92" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G105" s="151"/>
     </row>
@@ -3355,7 +3383,7 @@
       <c r="E106" s="116"/>
       <c r="F106" s="117"/>
       <c r="G106" s="128" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -3419,11 +3447,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95172E40-EFBD-C544-B375-FB8612019B86}">
+  <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3432,7 +3525,7 @@
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3446,7 +3539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3454,160 +3547,143 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>43962</v>
+        <v>44067</v>
       </c>
       <c r="D2" s="1">
-        <v>43964</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <f>C2+4</f>
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>43965</v>
+        <v>44074</v>
       </c>
       <c r="D3" s="1">
-        <v>43966</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="D3:D11" si="0">C3+4</f>
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>43969</v>
+        <v>44081</v>
       </c>
       <c r="D4" s="1">
-        <v>43970</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>43972</v>
+        <v>44088</v>
       </c>
       <c r="D5" s="1">
-        <v>43973</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>43983</v>
+        <v>44102</v>
       </c>
       <c r="D6" s="1">
-        <v>43984</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>43986</v>
+        <v>44116</v>
       </c>
       <c r="D7" s="1">
-        <v>43987</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>43990</v>
+        <v>44130</v>
       </c>
       <c r="D8" s="1">
-        <v>43991</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>43993</v>
+        <v>44144</v>
       </c>
       <c r="D9" s="1">
-        <v>43994</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>43997</v>
+        <v>44158</v>
       </c>
       <c r="D10" s="1">
-        <v>43998</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>44000</v>
+        <v>44172</v>
       </c>
       <c r="D11" s="1">
-        <v>44001</v>
+        <f t="shared" si="0"/>
+        <v>44176</v>
       </c>
     </row>
   </sheetData>
@@ -3616,7 +3692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3630,7 +3706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -3645,15 +3721,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B2" s="7">
         <v>0.4</v>
@@ -3661,7 +3737,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B3" s="7">
         <v>0.2</v>
@@ -3669,7 +3745,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B4" s="7">
         <v>0.1</v>
@@ -3677,7 +3753,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B5" s="7">
         <v>0.1</v>
@@ -3685,7 +3761,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B6" s="7">
         <v>0.1</v>
@@ -3693,7 +3769,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B7" s="7">
         <v>0.05</v>
@@ -3701,7 +3777,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B8" s="7">
         <v>0.05</v>
@@ -3709,15 +3785,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" s="7">
         <f>SUM(B2:B8)</f>
@@ -3733,7 +3809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -3745,386 +3821,104 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="59.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4133,6 +3927,300 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="99.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -4151,7 +4239,7 @@
         <v>44067</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.2">
@@ -4159,7 +4247,7 @@
         <v>44081</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.2">
@@ -4167,7 +4255,7 @@
         <v>44146</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.2">
@@ -4175,7 +4263,7 @@
         <v>44160</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.2">
@@ -4183,7 +4271,7 @@
         <v>44164</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.2">
@@ -4191,7 +4279,7 @@
         <v>44172</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.2">
@@ -4199,7 +4287,7 @@
         <v>44176</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.2">
@@ -4207,7 +4295,7 @@
         <v>44180</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.2">
@@ -4215,7 +4303,7 @@
         <v>44181</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.2">
